--- a/ChairishRugEntry/2573-2633.xlsx
+++ b/ChairishRugEntry/2573-2633.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okkaa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\PycharmProjects\wovenyChairishPillowEntry\ChairishRugEntry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="121">
   <si>
     <t>Vintage Decorative Turkish Area Rug</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Handknotted</t>
   </si>
   <si>
-    <t>Floral</t>
-  </si>
-  <si>
     <t>Vintage</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Distressed Vintage Small Area Rug</t>
   </si>
   <si>
-    <t>Distressed</t>
-  </si>
-  <si>
     <t>Rust,Brown</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Worn Vintage Small Turkish Area Rug</t>
   </si>
   <si>
-    <t>Geometric</t>
-  </si>
-  <si>
     <t>Rust,Blue</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>Colorful Vintage Herki Runner Rug</t>
   </si>
   <si>
-    <t>Colorful</t>
-  </si>
-  <si>
     <t>Herki</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>Vintage Washed Out Turkish Runner Rug</t>
   </si>
   <si>
-    <t>Washed Out</t>
-  </si>
-  <si>
     <t>Beige,Brown</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>Vintage Gray Overdyed Runner Rug</t>
   </si>
   <si>
-    <t>Overdyed</t>
-  </si>
-  <si>
     <t>Gray</t>
   </si>
   <si>
@@ -399,6 +381,12 @@
   </si>
   <si>
     <t>Mini</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>Traditional,Boho chic</t>
   </si>
 </sst>
 </file>
@@ -746,10 +734,13 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
@@ -767,8 +758,14 @@
       <c r="E1" s="1">
         <v>213</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="2">
+        <f>INT(D1/2.54)</f>
+        <v>46</v>
+      </c>
+      <c r="G1" s="2">
+        <f>INT(E1/2.54)</f>
+        <v>83</v>
+      </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
@@ -776,25 +773,25 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="N1" s="1">
         <v>650</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -812,10 +809,10 @@
         <v>2574</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>145</v>
@@ -823,8 +820,14 @@
       <c r="E2" s="1">
         <v>254</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F61" si="0">INT(D2/2.54)</f>
+        <v>57</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G61" si="1">INT(E2/2.54)</f>
+        <v>100</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
@@ -832,25 +835,25 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="N2" s="1">
         <v>650</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -868,10 +871,10 @@
         <v>2575</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>114</v>
@@ -879,8 +882,14 @@
       <c r="E3" s="1">
         <v>192</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
@@ -888,25 +897,25 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="N3" s="1">
         <v>400</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -924,10 +933,10 @@
         <v>2576</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>106</v>
@@ -935,8 +944,14 @@
       <c r="E4" s="1">
         <v>201</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
@@ -944,25 +959,25 @@
         <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="1">
         <v>500</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -980,7 +995,7 @@
         <v>2577</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -991,8 +1006,14 @@
       <c r="E5" s="1">
         <v>186</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1000,25 +1021,25 @@
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="N5" s="1">
         <v>450</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1036,7 +1057,7 @@
         <v>2578</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -1047,8 +1068,14 @@
       <c r="E6" s="1">
         <v>163</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1056,25 +1083,25 @@
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N6" s="1">
         <v>485</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1092,10 +1119,10 @@
         <v>2579</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>103</v>
@@ -1103,8 +1130,14 @@
       <c r="E7" s="1">
         <v>202</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1112,25 +1145,25 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N7" s="1">
         <v>450</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1148,10 +1181,10 @@
         <v>2580</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>67</v>
@@ -1159,8 +1192,14 @@
       <c r="E8" s="1">
         <v>274</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1168,25 +1207,25 @@
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8" s="1">
         <v>550</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1204,10 +1243,10 @@
         <v>2581</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1215,8 +1254,14 @@
       <c r="E9" s="1">
         <v>175</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1224,25 +1269,25 @@
         <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N9" s="1">
         <v>500</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1260,10 +1305,10 @@
         <v>2582</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>130</v>
@@ -1271,8 +1316,14 @@
       <c r="E10" s="1">
         <v>286</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1280,25 +1331,25 @@
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N10" s="1">
         <v>715</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1316,10 +1367,10 @@
         <v>2583</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>66</v>
@@ -1327,8 +1378,14 @@
       <c r="E11" s="1">
         <v>220</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1336,25 +1393,25 @@
         <v>3</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N11" s="1">
         <v>650</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1372,10 +1429,10 @@
         <v>2584</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>114</v>
@@ -1383,8 +1440,14 @@
       <c r="E12" s="1">
         <v>204</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1392,25 +1455,25 @@
         <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N12" s="1">
         <v>450</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1428,10 +1491,10 @@
         <v>2585</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>88</v>
@@ -1439,8 +1502,14 @@
       <c r="E13" s="1">
         <v>277</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1448,25 +1517,25 @@
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N13" s="1">
         <v>715</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1484,10 +1553,10 @@
         <v>2586</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>93</v>
@@ -1495,8 +1564,14 @@
       <c r="E14" s="1">
         <v>261</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1504,25 +1579,25 @@
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N14" s="1">
         <v>725</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1540,10 +1615,10 @@
         <v>2587</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>76</v>
@@ -1551,8 +1626,14 @@
       <c r="E15" s="1">
         <v>350</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1560,25 +1641,25 @@
         <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N15" s="1">
         <v>750</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1596,10 +1677,10 @@
         <v>2588</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1">
         <v>89</v>
@@ -1607,34 +1688,40 @@
       <c r="E16" s="1">
         <v>414</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N16" s="1">
         <v>800</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1652,10 +1739,10 @@
         <v>2589</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1">
         <v>85</v>
@@ -1663,8 +1750,14 @@
       <c r="E17" s="1">
         <v>376</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1672,25 +1765,25 @@
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N17" s="1">
         <v>885</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1708,10 +1801,10 @@
         <v>2590</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
         <v>70</v>
@@ -1719,8 +1812,14 @@
       <c r="E18" s="1">
         <v>282</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1728,25 +1827,25 @@
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N18" s="1">
         <v>685</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1764,10 +1863,10 @@
         <v>2591</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>82</v>
@@ -1775,8 +1874,14 @@
       <c r="E19" s="1">
         <v>232</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1784,25 +1889,25 @@
         <v>3</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N19" s="1">
         <v>550</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1820,10 +1925,10 @@
         <v>2592</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1">
         <v>93</v>
@@ -1831,34 +1936,40 @@
       <c r="E20" s="1">
         <v>226</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N20" s="1">
         <v>715</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1876,10 +1987,10 @@
         <v>2593</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1">
         <v>85</v>
@@ -1887,8 +1998,14 @@
       <c r="E21" s="1">
         <v>330</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1896,25 +2013,25 @@
         <v>3</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N21" s="1">
         <v>800</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1932,10 +2049,10 @@
         <v>2594</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1">
         <v>84</v>
@@ -1943,8 +2060,14 @@
       <c r="E22" s="1">
         <v>290</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1952,25 +2075,25 @@
         <v>3</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N22" s="1">
         <v>550</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1988,10 +2111,10 @@
         <v>2595</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1">
         <v>87</v>
@@ -1999,8 +2122,14 @@
       <c r="E23" s="1">
         <v>280</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>2</v>
       </c>
@@ -2008,25 +2137,25 @@
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N23" s="1">
         <v>600</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -2044,10 +2173,10 @@
         <v>2596</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1">
         <v>82</v>
@@ -2055,8 +2184,14 @@
       <c r="E24" s="1">
         <v>277</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>2</v>
       </c>
@@ -2064,25 +2199,25 @@
         <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N24" s="1">
         <v>600</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -2100,10 +2235,10 @@
         <v>2597</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1">
         <v>78</v>
@@ -2111,34 +2246,40 @@
       <c r="E25" s="1">
         <v>288</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N25" s="1">
         <v>750</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -2156,10 +2297,10 @@
         <v>2598</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1">
         <v>91</v>
@@ -2167,8 +2308,14 @@
       <c r="E26" s="1">
         <v>288</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>2</v>
       </c>
@@ -2176,25 +2323,25 @@
         <v>3</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N26" s="1">
         <v>650</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -2212,10 +2359,10 @@
         <v>2599</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1">
         <v>85</v>
@@ -2223,8 +2370,14 @@
       <c r="E27" s="1">
         <v>283</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>2</v>
       </c>
@@ -2232,25 +2385,25 @@
         <v>3</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N27" s="1">
         <v>600</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -2268,10 +2421,10 @@
         <v>2600</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1">
         <v>72</v>
@@ -2279,34 +2432,40 @@
       <c r="E28" s="1">
         <v>266</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N28" s="1">
         <v>850</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -2324,10 +2483,10 @@
         <v>2601</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>89</v>
@@ -2335,8 +2494,14 @@
       <c r="E29" s="1">
         <v>258</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
       <c r="H29" s="2" t="s">
         <v>2</v>
       </c>
@@ -2344,25 +2509,25 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N29" s="1">
         <v>600</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -2380,10 +2545,10 @@
         <v>2602</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1">
         <v>85</v>
@@ -2391,8 +2556,14 @@
       <c r="E30" s="1">
         <v>290</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>2</v>
       </c>
@@ -2400,25 +2571,25 @@
         <v>3</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N30" s="1">
         <v>650</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -2436,10 +2607,10 @@
         <v>2603</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1">
         <v>87</v>
@@ -2447,8 +2618,14 @@
       <c r="E31" s="1">
         <v>265</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
       <c r="H31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2456,25 +2633,25 @@
         <v>3</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N31" s="1">
         <v>650</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -2492,10 +2669,10 @@
         <v>2604</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1">
         <v>84</v>
@@ -2503,8 +2680,14 @@
       <c r="E32" s="1">
         <v>270</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
       <c r="H32" s="2" t="s">
         <v>2</v>
       </c>
@@ -2512,25 +2695,25 @@
         <v>3</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N32" s="1">
         <v>650</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -2548,10 +2731,10 @@
         <v>2605</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1">
         <v>77</v>
@@ -2559,8 +2742,14 @@
       <c r="E33" s="1">
         <v>335</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
       <c r="H33" s="2" t="s">
         <v>2</v>
       </c>
@@ -2568,25 +2757,25 @@
         <v>3</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N33" s="1">
         <v>675</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -2604,10 +2793,10 @@
         <v>2606</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1">
         <v>90</v>
@@ -2615,8 +2804,14 @@
       <c r="E34" s="1">
         <v>283</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
       <c r="H34" s="2" t="s">
         <v>2</v>
       </c>
@@ -2624,25 +2819,25 @@
         <v>3</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N34" s="1">
         <v>675</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -2660,10 +2855,10 @@
         <v>2607</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
         <v>80</v>
@@ -2671,8 +2866,14 @@
       <c r="E35" s="1">
         <v>310</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
       <c r="H35" s="2" t="s">
         <v>2</v>
       </c>
@@ -2680,25 +2881,25 @@
         <v>3</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N35" s="1">
         <v>800</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -2716,10 +2917,10 @@
         <v>2608</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1">
         <v>83</v>
@@ -2727,8 +2928,14 @@
       <c r="E36" s="1">
         <v>318</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
       <c r="H36" s="2" t="s">
         <v>2</v>
       </c>
@@ -2736,25 +2943,25 @@
         <v>3</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N36" s="1">
         <v>850</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -2772,10 +2979,10 @@
         <v>2609</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1">
         <v>97</v>
@@ -2783,34 +2990,40 @@
       <c r="E37" s="1">
         <v>330</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
       <c r="H37" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N37" s="1">
         <v>835</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -2828,10 +3041,10 @@
         <v>2610</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1">
         <v>141</v>
@@ -2839,8 +3052,14 @@
       <c r="E38" s="1">
         <v>405</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
       <c r="H38" s="2" t="s">
         <v>2</v>
       </c>
@@ -2848,25 +3067,25 @@
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N38" s="1">
         <v>1350</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -2884,10 +3103,10 @@
         <v>2611</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1">
         <v>101</v>
@@ -2895,34 +3114,40 @@
       <c r="E39" s="1">
         <v>265</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
       <c r="H39" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N39" s="1">
         <v>900</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -2940,10 +3165,10 @@
         <v>2612</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1">
         <v>89</v>
@@ -2951,8 +3176,14 @@
       <c r="E40" s="1">
         <v>288</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="H40" s="2" t="s">
         <v>2</v>
       </c>
@@ -2960,25 +3191,25 @@
         <v>3</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N40" s="1">
         <v>650</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -2996,10 +3227,10 @@
         <v>2613</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1">
         <v>83</v>
@@ -3007,8 +3238,14 @@
       <c r="E41" s="1">
         <v>293</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
       <c r="H41" s="2" t="s">
         <v>2</v>
       </c>
@@ -3016,25 +3253,25 @@
         <v>3</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="N41" s="1">
         <v>685</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -3052,10 +3289,10 @@
         <v>2614</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D42" s="1">
         <v>84</v>
@@ -3063,8 +3300,14 @@
       <c r="E42" s="1">
         <v>245</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
       <c r="H42" s="2" t="s">
         <v>2</v>
       </c>
@@ -3072,25 +3315,25 @@
         <v>3</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N42" s="1">
         <v>815</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -3108,10 +3351,10 @@
         <v>2615</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1">
         <v>78</v>
@@ -3119,8 +3362,14 @@
       <c r="E43" s="1">
         <v>340</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
       <c r="H43" s="2" t="s">
         <v>2</v>
       </c>
@@ -3128,25 +3377,25 @@
         <v>3</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N43" s="1">
         <v>850</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -3164,10 +3413,10 @@
         <v>2616</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1">
         <v>89</v>
@@ -3175,34 +3424,40 @@
       <c r="E44" s="1">
         <v>315</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
       <c r="H44" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N44" s="1">
         <v>885</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -3220,10 +3475,10 @@
         <v>2617</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D45" s="1">
         <v>80</v>
@@ -3231,34 +3486,40 @@
       <c r="E45" s="1">
         <v>400</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
       <c r="H45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N45" s="1">
         <v>900</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -3276,10 +3537,10 @@
         <v>2618</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1">
         <v>86</v>
@@ -3287,8 +3548,14 @@
       <c r="E46" s="1">
         <v>290</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
       <c r="H46" s="2" t="s">
         <v>2</v>
       </c>
@@ -3296,25 +3563,25 @@
         <v>3</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N46" s="1">
         <v>675</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -3332,10 +3599,10 @@
         <v>2619</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1">
         <v>92</v>
@@ -3343,8 +3610,14 @@
       <c r="E47" s="1">
         <v>267</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
       <c r="H47" s="2" t="s">
         <v>2</v>
       </c>
@@ -3352,25 +3625,25 @@
         <v>3</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N47" s="1">
         <v>650</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -3388,10 +3661,10 @@
         <v>2620</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1">
         <v>130</v>
@@ -3399,8 +3672,14 @@
       <c r="E48" s="1">
         <v>212</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
       <c r="H48" s="2" t="s">
         <v>2</v>
       </c>
@@ -3408,25 +3687,25 @@
         <v>3</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N48" s="1">
         <v>600</v>
       </c>
       <c r="O48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -3444,10 +3723,10 @@
         <v>2621</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1">
         <v>86</v>
@@ -3455,8 +3734,14 @@
       <c r="E49" s="1">
         <v>313</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
       <c r="H49" s="2" t="s">
         <v>2</v>
       </c>
@@ -3464,25 +3749,25 @@
         <v>3</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N49" s="1">
         <v>675</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -3500,10 +3785,10 @@
         <v>2622</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D50" s="1">
         <v>90</v>
@@ -3511,8 +3796,14 @@
       <c r="E50" s="1">
         <v>296</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
       <c r="H50" s="2" t="s">
         <v>2</v>
       </c>
@@ -3520,25 +3811,25 @@
         <v>3</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N50" s="1">
         <v>650</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -3556,10 +3847,10 @@
         <v>2623</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1">
         <v>86</v>
@@ -3567,34 +3858,40 @@
       <c r="E51" s="1">
         <v>260</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
       <c r="H51" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N51" s="1">
         <v>735</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
@@ -3612,10 +3909,10 @@
         <v>2624</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1">
         <v>77</v>
@@ -3623,8 +3920,14 @@
       <c r="E52" s="1">
         <v>380</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
       <c r="H52" s="2" t="s">
         <v>2</v>
       </c>
@@ -3632,25 +3935,25 @@
         <v>3</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N52" s="1">
         <v>800</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -3668,10 +3971,10 @@
         <v>2625</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D53" s="1">
         <v>88</v>
@@ -3679,8 +3982,14 @@
       <c r="E53" s="1">
         <v>267</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
       <c r="H53" s="2" t="s">
         <v>2</v>
       </c>
@@ -3688,25 +3997,25 @@
         <v>3</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N53" s="1">
         <v>650</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -3724,10 +4033,10 @@
         <v>2626</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1">
         <v>84</v>
@@ -3735,8 +4044,14 @@
       <c r="E54" s="1">
         <v>387</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
       <c r="H54" s="2" t="s">
         <v>2</v>
       </c>
@@ -3744,25 +4059,25 @@
         <v>3</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N54" s="1">
         <v>700</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -3780,10 +4095,10 @@
         <v>2627</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1">
         <v>94</v>
@@ -3791,8 +4106,14 @@
       <c r="E55" s="1">
         <v>284</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
       <c r="H55" s="2" t="s">
         <v>2</v>
       </c>
@@ -3800,25 +4121,25 @@
         <v>3</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N55" s="1">
         <v>650</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -3836,10 +4157,10 @@
         <v>2628</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D56" s="1">
         <v>90</v>
@@ -3847,8 +4168,14 @@
       <c r="E56" s="1">
         <v>288</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="H56" s="2" t="s">
         <v>2</v>
       </c>
@@ -3856,25 +4183,25 @@
         <v>3</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N56" s="1">
         <v>650</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -3892,10 +4219,10 @@
         <v>2629</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1">
         <v>108</v>
@@ -3903,8 +4230,14 @@
       <c r="E57" s="1">
         <v>234</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
       <c r="H57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3912,25 +4245,25 @@
         <v>3</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N57" s="1">
         <v>600</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -3948,10 +4281,10 @@
         <v>2630</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1">
         <v>96</v>
@@ -3959,34 +4292,40 @@
       <c r="E58" s="1">
         <v>240</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
       <c r="H58" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N58" s="1">
         <v>785</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -4004,10 +4343,10 @@
         <v>2631</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1">
         <v>105</v>
@@ -4015,8 +4354,14 @@
       <c r="E59" s="1">
         <v>335</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
       <c r="H59" s="2" t="s">
         <v>2</v>
       </c>
@@ -4024,25 +4369,25 @@
         <v>3</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N59" s="1">
         <v>685</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -4060,10 +4405,10 @@
         <v>2632</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D60" s="1">
         <v>80</v>
@@ -4071,34 +4416,40 @@
       <c r="E60" s="1">
         <v>126</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="H60" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="N60" s="1">
         <v>385</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -4116,10 +4467,10 @@
         <v>2633</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1">
         <v>68</v>
@@ -4127,34 +4478,40 @@
       <c r="E61" s="1">
         <v>110</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
       <c r="H61" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="N61" s="1">
         <v>300</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
